--- a/Federated Electric Market/result_excel/train_loss/frac/frac=0.01.xlsx
+++ b/Federated Electric Market/result_excel/train_loss/frac/frac=0.01.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01266067957039923</v>
+        <v>0.007706639338721288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08144707101028567</v>
+        <v>0.06418739998325085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1020015298716561</v>
+        <v>0.08096546464763109</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004974216714750086</v>
+        <v>0.01028573108567137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05434096034764396</v>
+        <v>0.07287099557971075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06769681957512701</v>
+        <v>0.09638239208892237</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01266946019344725</v>
+        <v>0.008966869199177883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08246224125054605</v>
+        <v>0.06794639779532211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.106485750729331</v>
+        <v>0.08936896488943018</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.007101758424455221</v>
+        <v>0.001649033266337628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06144084242127955</v>
+        <v>0.02913410037042612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08005459498731485</v>
+        <v>0.03769600726075222</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002867765165574383</v>
+        <v>0.004627039346417982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03087785369902849</v>
+        <v>0.05224372169764881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04355927090283258</v>
+        <v>0.06597382678809006</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002566399892136959</v>
+        <v>0.005510849956704608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03561367596400545</v>
+        <v>0.05762910528671603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0473733694663197</v>
+        <v>0.071754427118684</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008877353835107878</v>
+        <v>0.004918887088371611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06737999448750882</v>
+        <v>0.05318964973092079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.088404098406818</v>
+        <v>0.06754630362190925</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.007442346196936948</v>
+        <v>0.00576336497021354</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0556933294168751</v>
+        <v>0.05424648329615593</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07873184010826209</v>
+        <v>0.07135382443276535</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.007949193785502082</v>
+        <v>0.006453122159189998</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06558090145719495</v>
+        <v>0.0564838805144956</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08326495768418184</v>
+        <v>0.07380134283948818</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005421062427042269</v>
+        <v>0.003435254294643219</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05728069664433946</v>
+        <v>0.04527927651288028</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07148108506090479</v>
+        <v>0.05670693794084071</v>
       </c>
     </row>
   </sheetData>
